--- a/docentes/Hernández Mendoza Delfina Estadisticos 2020.xlsx
+++ b/docentes/Hernández Mendoza Delfina Estadisticos 2020.xlsx
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1001,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
